--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AIN127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4B9897-7B66-4A87-9F14-62D1A012A474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8925429-8AF2-416E-8FCE-2980B2731A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B6C2A97-87E0-49C8-B807-890F5E2A9BCC}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Harish</t>
   </si>
   <si>
-    <t>AIN127</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>AIN123</t>
+  </si>
+  <si>
+    <t>AIN125</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2409FE-A30C-41D7-BA21-9E4C22589CE2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -463,32 +465,32 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
